--- a/biology/Médecine/Nathan_Smith/Nathan_Smith.xlsx
+++ b/biology/Médecine/Nathan_Smith/Nathan_Smith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nathan Smith (1762-1829) était l'un des médecins les plus connus et les plus respectés en Nouvelle-Angleterre, au nord-est des États-Unis. Il fut un habile chirurgien, mais aussi un professeur et un écrivain. Il fonde la Dartmouth Medical School et participera à la fondation du University of Vermont College of Medicine, de l'école de médecine du Bowdoin College et de Yale.
 À Dartmouth, il enseigna l'anatomie, la chimie, la chirurgie et la médecine. Il sauva Joseph Smith de l'amputation de la jambe alors qu'il était enfant.
